--- a/data/trans_orig/P6707-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6707-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>22389</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14101</v>
+        <v>14858</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32431</v>
+        <v>32262</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2733553711395596</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1721657255530797</v>
+        <v>0.1814105648446023</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3959619635570282</v>
+        <v>0.3939053353519376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -764,19 +764,19 @@
         <v>20077</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13059</v>
+        <v>13015</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28176</v>
+        <v>28425</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2337960196931685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1520741899798405</v>
+        <v>0.1515664493313173</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3281087926728524</v>
+        <v>0.3310178080593255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -785,19 +785,19 @@
         <v>42466</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>31662</v>
+        <v>32091</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54710</v>
+        <v>56547</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2531077170526757</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1887144368747117</v>
+        <v>0.1912692402374618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3260888127349426</v>
+        <v>0.3370362459612177</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>8139</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4013</v>
+        <v>3816</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15621</v>
+        <v>15283</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09936882349843491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04899894603676948</v>
+        <v>0.04659162962811466</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1907278573239355</v>
+        <v>0.1866019630752948</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -835,19 +835,19 @@
         <v>5757</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2004</v>
+        <v>1981</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12302</v>
+        <v>11800</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06703986226019987</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02333509005143248</v>
+        <v>0.02307115367866729</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1432584460855498</v>
+        <v>0.137412571255803</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -856,19 +856,19 @@
         <v>13896</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7812</v>
+        <v>8225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22578</v>
+        <v>22405</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08282189842998114</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04656034901277983</v>
+        <v>0.04902421762135102</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1345719186704996</v>
+        <v>0.1335378936544724</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>18316</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11675</v>
+        <v>11791</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26863</v>
+        <v>27281</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2236267255162351</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.142549634462145</v>
+        <v>0.143956978174594</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3279821258584508</v>
+        <v>0.3330799716704947</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -906,19 +906,19 @@
         <v>14879</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8903</v>
+        <v>8664</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22977</v>
+        <v>22556</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1732673841632869</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1036799130410004</v>
+        <v>0.1008950070975424</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2675748209732426</v>
+        <v>0.2626650484600629</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>34</v>
@@ -927,19 +927,19 @@
         <v>33195</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>24260</v>
+        <v>23772</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>44478</v>
+        <v>43391</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1978513149880924</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1445989327745088</v>
+        <v>0.1416886795161328</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2651003906219568</v>
+        <v>0.2586260249237684</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>11732</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6376</v>
+        <v>6155</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20308</v>
+        <v>20028</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1432415072098152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07784444144065536</v>
+        <v>0.07515104507856556</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2479458598745228</v>
+        <v>0.2445284328758459</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -977,19 +977,19 @@
         <v>20232</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12508</v>
+        <v>13123</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28955</v>
+        <v>28673</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2356072103403185</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1456562932213883</v>
+        <v>0.1528164638946369</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3371827874171117</v>
+        <v>0.3339025907530941</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -998,19 +998,19 @@
         <v>31964</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22673</v>
+        <v>22578</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>44239</v>
+        <v>43722</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1905170245805343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1351375688013153</v>
+        <v>0.1345738176098959</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2636803534047072</v>
+        <v>0.2605981685940017</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>21328</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>14071</v>
+        <v>13728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30063</v>
+        <v>30507</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2604075726359552</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1717984519769811</v>
+        <v>0.1676159527207527</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3670554300260181</v>
+        <v>0.3724760342690571</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>24</v>
@@ -1048,19 +1048,19 @@
         <v>24928</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17245</v>
+        <v>16981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>34501</v>
+        <v>33557</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2902895235430263</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2008248980159385</v>
+        <v>0.1977491321480468</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.401770719551618</v>
+        <v>0.3907725268276366</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>44</v>
@@ -1069,19 +1069,19 @@
         <v>46256</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35191</v>
+        <v>35531</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58335</v>
+        <v>60456</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2757020449487165</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2097462562088403</v>
+        <v>0.211773652906851</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3476954598742972</v>
+        <v>0.3603372562401042</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>63900</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49909</v>
+        <v>49972</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81014</v>
+        <v>79861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1669697524119696</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.130411498979522</v>
+        <v>0.1305757837685108</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2116899448715235</v>
+        <v>0.2086763319948767</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -1194,19 +1194,19 @@
         <v>60317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47578</v>
+        <v>46170</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74725</v>
+        <v>74159</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.220097497295478</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1736126662614295</v>
+        <v>0.1684750651874228</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2726716652226377</v>
+        <v>0.2706083779220204</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>115</v>
@@ -1215,19 +1215,19 @@
         <v>124216</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103731</v>
+        <v>104294</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144578</v>
+        <v>146086</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1891387441870617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1579465961065749</v>
+        <v>0.1588042932658363</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2201418084628171</v>
+        <v>0.2224383878736836</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>26599</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17787</v>
+        <v>17951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38758</v>
+        <v>40523</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06950297093814556</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0464776054432061</v>
+        <v>0.04690521359158921</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1012740320957865</v>
+        <v>0.1058859622634702</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -1265,19 +1265,19 @@
         <v>32240</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23084</v>
+        <v>22087</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>44920</v>
+        <v>45217</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1176432843436237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08423367036287957</v>
+        <v>0.08059521022198383</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.163914037993859</v>
+        <v>0.1649990455983813</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -1286,19 +1286,19 @@
         <v>58839</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44699</v>
+        <v>44385</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>75773</v>
+        <v>74978</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08959082172640075</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06806065632103342</v>
+        <v>0.06758228950012646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1153758627527312</v>
+        <v>0.1141656309440057</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>96368</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80781</v>
+        <v>81453</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>115211</v>
+        <v>116147</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2518086904089774</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2110807889714967</v>
+        <v>0.2128379099577859</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3010456905321409</v>
+        <v>0.3034932168369863</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>54</v>
@@ -1336,19 +1336,19 @@
         <v>58741</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45586</v>
+        <v>45171</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76474</v>
+        <v>74913</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2143454614657832</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1663457505350875</v>
+        <v>0.1648303245380954</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2790542414094728</v>
+        <v>0.2733586120512166</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>149</v>
@@ -1357,19 +1357,19 @@
         <v>155108</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>134214</v>
+        <v>134700</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>177242</v>
+        <v>177941</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2361761425541583</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2043621048644971</v>
+        <v>0.2051014691818035</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2698778931386998</v>
+        <v>0.2709428906354842</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>79923</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65056</v>
+        <v>65227</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>97573</v>
+        <v>97485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2088381329312557</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1699907941771684</v>
+        <v>0.1704375353529283</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2549590161212272</v>
+        <v>0.2547278430968634</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1407,19 +1407,19 @@
         <v>48728</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37384</v>
+        <v>36531</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62031</v>
+        <v>62832</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1778104519079546</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1364145087072069</v>
+        <v>0.1333016618726195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2263530930565316</v>
+        <v>0.229275613026166</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -1428,19 +1428,19 @@
         <v>128651</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109948</v>
+        <v>109071</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149471</v>
+        <v>150354</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1958909919051501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1674122783976495</v>
+        <v>0.1660769878898374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2275925363272428</v>
+        <v>0.2289366397913021</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>115913</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95846</v>
+        <v>97246</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135855</v>
+        <v>134292</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3028804533096517</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2504452632175407</v>
+        <v>0.254102893787633</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3549887130940503</v>
+        <v>0.3509041220605342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>68</v>
@@ -1478,19 +1478,19 @@
         <v>74021</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59947</v>
+        <v>59909</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90233</v>
+        <v>90693</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2701033049871605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2187468061529363</v>
+        <v>0.2186099192739787</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3292607864529675</v>
+        <v>0.3309403264677075</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>177</v>
@@ -1499,19 +1499,19 @@
         <v>189934</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>168105</v>
+        <v>165535</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>215421</v>
+        <v>215052</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2892032996272291</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2559665172072319</v>
+        <v>0.2520526866047742</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3280114196889208</v>
+        <v>0.327450153482744</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>57163</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44275</v>
+        <v>43351</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>73911</v>
+        <v>72755</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1357488964625133</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1051433645092794</v>
+        <v>0.1029481020034774</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1755198416159136</v>
+        <v>0.1727750250592458</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1624,19 +1624,19 @@
         <v>47064</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36218</v>
+        <v>35735</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>61705</v>
+        <v>60842</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1673825207229264</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1288072177537595</v>
+        <v>0.1270905203449852</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2194503121680792</v>
+        <v>0.2163812800706295</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -1645,19 +1645,19 @@
         <v>104228</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86152</v>
+        <v>86816</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125083</v>
+        <v>125882</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1484144509684347</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1226751231133608</v>
+        <v>0.1236217405547572</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1781106785198021</v>
+        <v>0.1792482870724947</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>48522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35932</v>
+        <v>36171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>64061</v>
+        <v>63674</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1152273828759373</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.085330596981149</v>
+        <v>0.08589657135457802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1521301529889602</v>
+        <v>0.151209032771731</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -1695,19 +1695,19 @@
         <v>31786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22595</v>
+        <v>22032</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43662</v>
+        <v>42282</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1130466516898982</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08035833570931243</v>
+        <v>0.0783559428009173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1552832265721413</v>
+        <v>0.1503748127844195</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>77</v>
@@ -1716,19 +1716,19 @@
         <v>80308</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64830</v>
+        <v>65131</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>97884</v>
+        <v>99437</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1143542559312608</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09231396995684132</v>
+        <v>0.09274244629674241</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1393819206860994</v>
+        <v>0.1415928239867139</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>95423</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78287</v>
+        <v>79975</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>113235</v>
+        <v>113222</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2266051182447264</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1859131732330546</v>
+        <v>0.189920290610975</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2689057617791357</v>
+        <v>0.2688733783937478</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -1766,19 +1766,19 @@
         <v>65646</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>52954</v>
+        <v>51908</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81409</v>
+        <v>82317</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2334679653954862</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1883270932802686</v>
+        <v>0.1846100589230049</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2895257090332788</v>
+        <v>0.2927551392672314</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>158</v>
@@ -1787,19 +1787,19 @@
         <v>161069</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>140017</v>
+        <v>140425</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>185463</v>
+        <v>184678</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2293528832158913</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1993766173819231</v>
+        <v>0.1999567596638619</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2640892213672582</v>
+        <v>0.2629706557171497</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>87695</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72586</v>
+        <v>72396</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104560</v>
+        <v>107061</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2082551053708012</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1723750852441653</v>
+        <v>0.1719226554582413</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2483040415485238</v>
+        <v>0.2542436936833686</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -1837,19 +1837,19 @@
         <v>53178</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40322</v>
+        <v>40234</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67347</v>
+        <v>67626</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1891266124683594</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1434048832056364</v>
+        <v>0.1430888714448699</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2395147029085511</v>
+        <v>0.2405071521552897</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>137</v>
@@ -1858,19 +1858,19 @@
         <v>140874</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>119000</v>
+        <v>122327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>161145</v>
+        <v>163001</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2005963885738393</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1694489570677882</v>
+        <v>0.1741868677311274</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2294620517199845</v>
+        <v>0.2321049389395699</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>132293</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113664</v>
+        <v>112700</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>155370</v>
+        <v>153235</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3141634970460218</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2699251148381559</v>
+        <v>0.2676345552541035</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3689665424780303</v>
+        <v>0.363895407361732</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>79</v>
@@ -1908,19 +1908,19 @@
         <v>83503</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>67766</v>
+        <v>68489</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99461</v>
+        <v>99248</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2969762497233298</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2410059214662991</v>
+        <v>0.2435770019098708</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3537269294999439</v>
+        <v>0.3529723215222695</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>205</v>
@@ -1929,19 +1929,19 @@
         <v>215796</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>191840</v>
+        <v>190092</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>240735</v>
+        <v>239460</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3072820213105739</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2731690507421953</v>
+        <v>0.2706809930725845</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3427937425295434</v>
+        <v>0.3409770006190376</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>58127</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43868</v>
+        <v>44239</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74847</v>
+        <v>77175</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1589951657778654</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1199927025936799</v>
+        <v>0.1210053086657144</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.204728662467371</v>
+        <v>0.2110955801839024</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>37</v>
@@ -2054,19 +2054,19 @@
         <v>42830</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31773</v>
+        <v>29859</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56613</v>
+        <v>55947</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1918940635636829</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1423535276997187</v>
+        <v>0.1337773202059791</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2536438388906158</v>
+        <v>0.2506595053552937</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -2075,19 +2075,19 @@
         <v>100958</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>83207</v>
+        <v>81845</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>121168</v>
+        <v>121820</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1714664558362337</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1413184603679886</v>
+        <v>0.1390047124856717</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.205791006382403</v>
+        <v>0.2068987025407177</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>25193</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16463</v>
+        <v>16280</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35886</v>
+        <v>36007</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06891094669655702</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04503007958935725</v>
+        <v>0.04452917025285245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09815873421950741</v>
+        <v>0.09849067679963575</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -2125,19 +2125,19 @@
         <v>16045</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>10181</v>
+        <v>9541</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25155</v>
+        <v>25989</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07188753380513628</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04561217776373729</v>
+        <v>0.04274768193417133</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1127042686119823</v>
+        <v>0.1164401479938192</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>38</v>
@@ -2146,19 +2146,19 @@
         <v>41239</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>28967</v>
+        <v>29903</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>55204</v>
+        <v>56072</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07003930915589433</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04919710117630487</v>
+        <v>0.05078704701359639</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09375889493913654</v>
+        <v>0.0952325989122989</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>75825</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>60105</v>
+        <v>59835</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>93294</v>
+        <v>92015</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2074035226549971</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1644032190787583</v>
+        <v>0.163666125762942</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2551856178281964</v>
+        <v>0.2516868699884507</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>39</v>
@@ -2196,19 +2196,19 @@
         <v>46049</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>34366</v>
+        <v>32819</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>60447</v>
+        <v>60619</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2063146320305229</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1539705478948963</v>
+        <v>0.1470413157592571</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2708207990833275</v>
+        <v>0.2715908031047392</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>107</v>
@@ -2217,19 +2217,19 @@
         <v>121874</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>102057</v>
+        <v>102956</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>144388</v>
+        <v>147466</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.206990746795208</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1733323674916325</v>
+        <v>0.1748597190685346</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2452270858031149</v>
+        <v>0.250456158587939</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>87631</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>70505</v>
+        <v>70979</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>106247</v>
+        <v>106082</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2396959601330544</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1928519845631872</v>
+        <v>0.1941487101622966</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2906167914113668</v>
+        <v>0.2901650729938272</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -2267,19 +2267,19 @@
         <v>45880</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>34066</v>
+        <v>33337</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61500</v>
+        <v>60522</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2055577944859759</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1526273512073903</v>
+        <v>0.1493604818451101</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2755419236541717</v>
+        <v>0.2711574004721131</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>115</v>
@@ -2288,19 +2288,19 @@
         <v>133511</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112651</v>
+        <v>109329</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>156911</v>
+        <v>155698</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2267548893221995</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1913260327400386</v>
+        <v>0.1856845576950392</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2664975930949171</v>
+        <v>0.2644360715504296</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>118815</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>101175</v>
+        <v>101081</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139646</v>
+        <v>137770</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.324994404737526</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2767424959110513</v>
+        <v>0.2764864786539724</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3819729511657144</v>
+        <v>0.3768403471294939</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -2338,19 +2338,19 @@
         <v>72393</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58256</v>
+        <v>57065</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>87223</v>
+        <v>88705</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3243459761146821</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2610058473983726</v>
+        <v>0.2556716931953186</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3907871103663655</v>
+        <v>0.3974286602860626</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>168</v>
@@ -2359,19 +2359,19 @@
         <v>191209</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>167971</v>
+        <v>167020</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>217052</v>
+        <v>213196</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3247485988904644</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2852815736226257</v>
+        <v>0.2836663158495554</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3686407526072993</v>
+        <v>0.3620914791561796</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>14166</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7618</v>
+        <v>7276</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>23115</v>
+        <v>22090</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09002983460796805</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04841138763168538</v>
+        <v>0.04624085961409231</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1469024220922638</v>
+        <v>0.1403876334543153</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>10</v>
@@ -2484,19 +2484,19 @@
         <v>10559</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>5411</v>
+        <v>5446</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17931</v>
+        <v>18582</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1539629205196897</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0788930390543356</v>
+        <v>0.07941132009473825</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2614438516290737</v>
+        <v>0.2709414243561293</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>23</v>
@@ -2505,19 +2505,19 @@
         <v>24726</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15886</v>
+        <v>15942</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35286</v>
+        <v>36043</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1094370007450476</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07031119183056279</v>
+        <v>0.07056156656474692</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1561770412735244</v>
+        <v>0.1595278692322162</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>10310</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5083</v>
+        <v>5194</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>17055</v>
+        <v>18139</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06552424076016675</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03230428168211862</v>
+        <v>0.03301076048557565</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1083911709606515</v>
+        <v>0.1152792644433743</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7448</v>
+        <v>7466</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03089103801884512</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1085956809832244</v>
+        <v>0.1088611782795758</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>12</v>
@@ -2576,19 +2576,19 @@
         <v>12429</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6262</v>
+        <v>6767</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20143</v>
+        <v>20510</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0550111815221368</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0277139229872165</v>
+        <v>0.0299512993604583</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08915649191931423</v>
+        <v>0.09077953705355907</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>29837</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21370</v>
+        <v>20354</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>41259</v>
+        <v>41841</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1896179090830482</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1358135995601413</v>
+        <v>0.1293522038937922</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2622120249235735</v>
+        <v>0.2659086092617957</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>11</v>
@@ -2626,19 +2626,19 @@
         <v>12583</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6817</v>
+        <v>6426</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>20630</v>
+        <v>20169</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1834777995724447</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09939224284315476</v>
+        <v>0.09370160368941462</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3008016498338077</v>
+        <v>0.294077994083587</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -2647,19 +2647,19 @@
         <v>42420</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31004</v>
+        <v>30836</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>56822</v>
+        <v>57065</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1877540521508694</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1372238670897659</v>
+        <v>0.1364829855976235</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2514995492146682</v>
+        <v>0.2525727099384695</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>30986</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>21617</v>
+        <v>21411</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>42362</v>
+        <v>41814</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1969216416473221</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1373832709272387</v>
+        <v>0.13607235883671</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2692198898673561</v>
+        <v>0.2657358530280556</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>14</v>
@@ -2697,19 +2697,19 @@
         <v>14573</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>8997</v>
+        <v>8924</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23223</v>
+        <v>22502</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2124915345501734</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1311895277647551</v>
+        <v>0.1301159581948518</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3386075752808212</v>
+        <v>0.3280969231581341</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>43</v>
@@ -2718,19 +2718,19 @@
         <v>45559</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>34069</v>
+        <v>34297</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>59406</v>
+        <v>59654</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2016479503182253</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1507899995661507</v>
+        <v>0.1517989486225425</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.262933515530905</v>
+        <v>0.2640320970904352</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>72052</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>60083</v>
+        <v>59147</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>86927</v>
+        <v>84588</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.457906373901495</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3818404033901184</v>
+        <v>0.3758951729588978</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5524392698066424</v>
+        <v>0.5375749995132361</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>25</v>
@@ -2768,19 +2768,19 @@
         <v>28748</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20481</v>
+        <v>19999</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>37909</v>
+        <v>36995</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4191767073388471</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2986296154379302</v>
+        <v>0.2916008191007726</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5527479021023143</v>
+        <v>0.5394160157601549</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>94</v>
@@ -2789,19 +2789,19 @@
         <v>100800</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>85474</v>
+        <v>84434</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>116548</v>
+        <v>116922</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4461498152637209</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3783157177198184</v>
+        <v>0.3737129465585688</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5158515185248487</v>
+        <v>0.5175062993440278</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>215746</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>188745</v>
+        <v>187336</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>247306</v>
+        <v>249949</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.15315818042492</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1339902384819018</v>
+        <v>0.1329898121110396</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1755629212916059</v>
+        <v>0.1774390294407024</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>168</v>
@@ -2914,19 +2914,19 @@
         <v>180848</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>157616</v>
+        <v>156234</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>205588</v>
+        <v>207452</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1938597274390222</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1689562982404497</v>
+        <v>0.1674746139904257</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2203804227857263</v>
+        <v>0.2223781125896225</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>362</v>
@@ -2935,19 +2935,19 @@
         <v>396594</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>360544</v>
+        <v>362563</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>437090</v>
+        <v>434239</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1693739559693343</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1539782847423258</v>
+        <v>0.154840501394371</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1866690047602472</v>
+        <v>0.185451138872802</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>118763</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>97256</v>
+        <v>98639</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>140788</v>
+        <v>142669</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08431011434494458</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06904241070443373</v>
+        <v>0.07002385543446756</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09994550130185921</v>
+        <v>0.1012812470785872</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>85</v>
@@ -2985,19 +2985,19 @@
         <v>87947</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>71438</v>
+        <v>71349</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>106208</v>
+        <v>108558</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09427443388356095</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07657774764925117</v>
+        <v>0.07648252773478131</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1138495585103951</v>
+        <v>0.1163682602077485</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>195</v>
@@ -3006,19 +3006,19 @@
         <v>206710</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>180329</v>
+        <v>176899</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>234805</v>
+        <v>234700</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08827996760470007</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.07701343793187457</v>
+        <v>0.07554872545549392</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1002785203245691</v>
+        <v>0.1002338307637813</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>315768</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>285596</v>
+        <v>284779</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>351180</v>
+        <v>349400</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2241641847812721</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2027450836705187</v>
+        <v>0.202165057603042</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2493035496994448</v>
+        <v>0.2480398524791573</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>182</v>
@@ -3056,19 +3056,19 @@
         <v>197898</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>172827</v>
+        <v>174873</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>225300</v>
+        <v>227227</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2121370902987804</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1852622879471943</v>
+        <v>0.1874549136950452</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.241509635264945</v>
+        <v>0.2435763110666559</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>485</v>
@@ -3077,19 +3077,19 @@
         <v>513666</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>472649</v>
+        <v>468880</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>554008</v>
+        <v>556897</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2193725078331704</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2018552462866929</v>
+        <v>0.2002453463588778</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2366013752712651</v>
+        <v>0.2378348711488343</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>297967</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>262625</v>
+        <v>266291</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>327433</v>
+        <v>331059</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2115273758258906</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1864382156088052</v>
+        <v>0.1890401075849519</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2324449499425462</v>
+        <v>0.235019089072518</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>169</v>
@@ -3127,19 +3127,19 @@
         <v>182593</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>156858</v>
+        <v>158911</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>206806</v>
+        <v>208608</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1957299883723649</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1681439733403884</v>
+        <v>0.1703446569508818</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.221685953755368</v>
+        <v>0.2236174077864126</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>453</v>
@@ -3148,19 +3148,19 @@
         <v>480560</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>439498</v>
+        <v>440792</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>519150</v>
+        <v>520097</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.205233588293791</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1876972768613834</v>
+        <v>0.1882498977708522</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2217144458438945</v>
+        <v>0.2221186902763645</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>460402</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>425303</v>
+        <v>424218</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>500275</v>
+        <v>498594</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3268401446229727</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3019231388439064</v>
+        <v>0.3011532015626841</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3551462966005015</v>
+        <v>0.353952688459733</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>257</v>
@@ -3198,19 +3198,19 @@
         <v>283594</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>255005</v>
+        <v>257672</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>314408</v>
+        <v>312502</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3039987600062716</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2733524739519005</v>
+        <v>0.2762117397747411</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3370290750920685</v>
+        <v>0.3349863885743609</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>688</v>
@@ -3219,19 +3219,19 @@
         <v>743996</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>701854</v>
+        <v>697708</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>790111</v>
+        <v>792921</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3177399802990041</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.299742232929421</v>
+        <v>0.2979714175041458</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3374341879493486</v>
+        <v>0.3386341554918751</v>
       </c>
     </row>
     <row r="39">
@@ -3564,19 +3564,19 @@
         <v>21578</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13955</v>
+        <v>14174</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29984</v>
+        <v>29991</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2727599673575279</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1764063232791559</v>
+        <v>0.1791693807772366</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3790256735569561</v>
+        <v>0.3791094114298599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -3585,19 +3585,19 @@
         <v>14303</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8245</v>
+        <v>8741</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21929</v>
+        <v>22928</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1557171182610055</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08976628047902148</v>
+        <v>0.0951633141600257</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2387314058797211</v>
+        <v>0.2496060289277694</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -3606,19 +3606,19 @@
         <v>35881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26865</v>
+        <v>26723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48026</v>
+        <v>48741</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.209875682407726</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1571412006445696</v>
+        <v>0.1563052845694329</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2809118412171962</v>
+        <v>0.2850938389952873</v>
       </c>
     </row>
     <row r="5">
@@ -3635,19 +3635,19 @@
         <v>14148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8156</v>
+        <v>8080</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22388</v>
+        <v>22621</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1788423632709484</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1030978894535626</v>
+        <v>0.1021429493752118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2829989660952367</v>
+        <v>0.2859455736039425</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3656,19 +3656,19 @@
         <v>14557</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8743</v>
+        <v>8518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22736</v>
+        <v>22932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1584750260804244</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09517903553264129</v>
+        <v>0.09272801911378767</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2475153079368797</v>
+        <v>0.2496499070340022</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>27</v>
@@ -3677,19 +3677,19 @@
         <v>28705</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19796</v>
+        <v>19930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40408</v>
+        <v>40200</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1678994868334364</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.115791050917272</v>
+        <v>0.1165731617014726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2363554061243531</v>
+        <v>0.2351387807276882</v>
       </c>
     </row>
     <row r="6">
@@ -3706,19 +3706,19 @@
         <v>21415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14109</v>
+        <v>14079</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>29486</v>
+        <v>30342</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2707043664418883</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1783463901667663</v>
+        <v>0.1779734140785957</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3727309856292825</v>
+        <v>0.3835511887994458</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -3727,19 +3727,19 @@
         <v>21931</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14344</v>
+        <v>14318</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31163</v>
+        <v>29900</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2387558697192843</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1561541140041623</v>
+        <v>0.1558751462440162</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3392575394171559</v>
+        <v>0.3255124493168059</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -3748,19 +3748,19 @@
         <v>43346</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32873</v>
+        <v>32967</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>56631</v>
+        <v>55386</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2535392137894164</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1922828256474872</v>
+        <v>0.1928296588738984</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.331246895498703</v>
+        <v>0.3239654191817347</v>
       </c>
     </row>
     <row r="7">
@@ -3777,19 +3777,19 @@
         <v>14595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8451</v>
+        <v>8291</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22937</v>
+        <v>22195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1844861312610817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1068272971608127</v>
+        <v>0.1047993802159995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.289937252416443</v>
+        <v>0.2805659922273711</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -3798,19 +3798,19 @@
         <v>23967</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16942</v>
+        <v>16964</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32769</v>
+        <v>32405</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2609271590770299</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1844446022973258</v>
+        <v>0.1846797043030127</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3567419525130087</v>
+        <v>0.3527864947156517</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -3819,19 +3819,19 @@
         <v>38562</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>28920</v>
+        <v>29182</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>49801</v>
+        <v>49277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2255560420855325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1691607884554614</v>
+        <v>0.1706907777909111</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2912957744597491</v>
+        <v>0.288227710194002</v>
       </c>
     </row>
     <row r="8">
@@ -3848,19 +3848,19 @@
         <v>7374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3186</v>
+        <v>3142</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14198</v>
+        <v>13631</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09320717166855357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04027431897289445</v>
+        <v>0.03971813295508932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1794770141094108</v>
+        <v>0.1723053432812013</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -3869,19 +3869,19 @@
         <v>17096</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10965</v>
+        <v>10701</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>25753</v>
+        <v>25284</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.186124826862256</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1193718263059009</v>
+        <v>0.1164937963121556</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2803614107975084</v>
+        <v>0.2752631380346725</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -3890,19 +3890,19 @@
         <v>24470</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15798</v>
+        <v>15822</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34578</v>
+        <v>34951</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1431295748838888</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09240607895160212</v>
+        <v>0.09254528542435404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2022502037368111</v>
+        <v>0.2044341199423208</v>
       </c>
     </row>
     <row r="9">
@@ -3994,19 +3994,19 @@
         <v>67631</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52350</v>
+        <v>53083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84015</v>
+        <v>84884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.196496318608047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1520977550890464</v>
+        <v>0.1542291093705646</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2440997045481005</v>
+        <v>0.2466243175016689</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -4015,19 +4015,19 @@
         <v>58631</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46206</v>
+        <v>46597</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72345</v>
+        <v>72803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2142037654899752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1688103547954788</v>
+        <v>0.1702379743426197</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2643066735572762</v>
+        <v>0.2659803968267891</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -4036,19 +4036,19 @@
         <v>126262</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>109294</v>
+        <v>106605</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>148331</v>
+        <v>148025</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2043403127527579</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1768799682263079</v>
+        <v>0.1725272579047619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2400566416288766</v>
+        <v>0.2395603559619</v>
       </c>
     </row>
     <row r="11">
@@ -4065,19 +4065,19 @@
         <v>52818</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>41297</v>
+        <v>40120</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67682</v>
+        <v>67557</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1534583066290633</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1199861140961329</v>
+        <v>0.1165648043263506</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1966444313209698</v>
+        <v>0.196282306715199</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -4086,19 +4086,19 @@
         <v>36514</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26576</v>
+        <v>27094</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49539</v>
+        <v>49843</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1333996786345815</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09709418783506912</v>
+        <v>0.09898505938902168</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1809868194535005</v>
+        <v>0.1820985827596137</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>90</v>
@@ -4107,19 +4107,19 @@
         <v>89332</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>73213</v>
+        <v>73399</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>108643</v>
+        <v>105589</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1445727930037069</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1184871297901976</v>
+        <v>0.1187880329007851</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1758264015742575</v>
+        <v>0.170882416875462</v>
       </c>
     </row>
     <row r="12">
@@ -4136,19 +4136,19 @@
         <v>97002</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80239</v>
+        <v>82196</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114629</v>
+        <v>115458</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.281830794109495</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2331265169344678</v>
+        <v>0.2388146248933201</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3330457713370167</v>
+        <v>0.3354531851626286</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>90</v>
@@ -4157,19 +4157,19 @@
         <v>85637</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>69421</v>
+        <v>70896</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>100844</v>
+        <v>99518</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3128678948329641</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.253624436204036</v>
+        <v>0.2590123495990935</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3684269339395437</v>
+        <v>0.3635813452879458</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>182</v>
@@ -4178,19 +4178,19 @@
         <v>182639</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>161173</v>
+        <v>160940</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>205593</v>
+        <v>203550</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2955795201662229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2608395546772908</v>
+        <v>0.260462331491877</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3327279464349563</v>
+        <v>0.3294219435274581</v>
       </c>
     </row>
     <row r="13">
@@ -4207,19 +4207,19 @@
         <v>66673</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54144</v>
+        <v>52438</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>84541</v>
+        <v>81480</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1937130699424825</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1573119584457868</v>
+        <v>0.1523527852676535</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2456271857152108</v>
+        <v>0.2367343884790375</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -4228,19 +4228,19 @@
         <v>49168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37803</v>
+        <v>37805</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62036</v>
+        <v>61626</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1796297198340369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1381091726186773</v>
+        <v>0.1381173345407498</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2266451549796713</v>
+        <v>0.2251474705324002</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>117</v>
@@ -4249,19 +4249,19 @@
         <v>115841</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>98779</v>
+        <v>97221</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138227</v>
+        <v>134141</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1874744678150746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1598624982539228</v>
+        <v>0.1573406418328302</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2237041371712047</v>
+        <v>0.2170913506716453</v>
       </c>
     </row>
     <row r="14">
@@ -4278,19 +4278,19 @@
         <v>60061</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46098</v>
+        <v>47286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>75474</v>
+        <v>75368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1745015107109122</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1339327465055209</v>
+        <v>0.1373866535066131</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2192838745227393</v>
+        <v>0.2189746431861545</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>43</v>
@@ -4299,19 +4299,19 @@
         <v>43767</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>32480</v>
+        <v>33046</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56845</v>
+        <v>57198</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1598989412084423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1186630479635003</v>
+        <v>0.1207309268031975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2076769652083603</v>
+        <v>0.2089686780704629</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>99</v>
@@ -4320,19 +4320,19 @@
         <v>103828</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>85496</v>
+        <v>85561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>122748</v>
+        <v>124097</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1680329062622378</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.138365193296282</v>
+        <v>0.1384709485106349</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1986534638084159</v>
+        <v>0.2008361224227957</v>
       </c>
     </row>
     <row r="15">
@@ -4424,19 +4424,19 @@
         <v>79345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64279</v>
+        <v>63629</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98256</v>
+        <v>96723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1726446827248371</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.139862239694178</v>
+        <v>0.1384472445888644</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.213791096052018</v>
+        <v>0.2104563296522527</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -4445,19 +4445,19 @@
         <v>64133</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>50526</v>
+        <v>51710</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78595</v>
+        <v>79486</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2020489403345943</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1591802915273298</v>
+        <v>0.1629091339674459</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2476118599673435</v>
+        <v>0.2504167989187069</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>140</v>
@@ -4466,19 +4466,19 @@
         <v>143478</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123931</v>
+        <v>124434</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>167526</v>
+        <v>165429</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1846566470148373</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1594985721449802</v>
+        <v>0.1601458969781887</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2156052684090522</v>
+        <v>0.2129068810001931</v>
       </c>
     </row>
     <row r="17">
@@ -4495,19 +4495,19 @@
         <v>78432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64660</v>
+        <v>64021</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>97050</v>
+        <v>94941</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1706581494360958</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.140691433196402</v>
+        <v>0.1393001341414322</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2111680071806652</v>
+        <v>0.206578534711934</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -4516,19 +4516,19 @@
         <v>39869</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28954</v>
+        <v>29115</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>51506</v>
+        <v>51508</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1256048194342192</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09121970021884604</v>
+        <v>0.09172443836268082</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1622689505663157</v>
+        <v>0.1622728653748639</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -4537,19 +4537,19 @@
         <v>118301</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>100782</v>
+        <v>98558</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>140713</v>
+        <v>138346</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1522533660774928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1297059965350184</v>
+        <v>0.1268443512810584</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1810975282057138</v>
+        <v>0.1780509189923511</v>
       </c>
     </row>
     <row r="18">
@@ -4566,19 +4566,19 @@
         <v>127567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>109262</v>
+        <v>108715</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>148278</v>
+        <v>150433</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2775675432722727</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2377386341874052</v>
+        <v>0.2365486065314265</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3226319354428258</v>
+        <v>0.3273211536845371</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>79</v>
@@ -4587,19 +4587,19 @@
         <v>76622</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>63114</v>
+        <v>60555</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>93582</v>
+        <v>89708</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.241393557598915</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1988385579237436</v>
+        <v>0.1907759096433655</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2948270218868246</v>
+        <v>0.2826226443316445</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>197</v>
@@ -4608,19 +4608,19 @@
         <v>204188</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>181415</v>
+        <v>181368</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>229674</v>
+        <v>229413</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.26279007023071</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2334812463609872</v>
+        <v>0.2334210075954337</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2955904766446767</v>
+        <v>0.2952542482801797</v>
       </c>
     </row>
     <row r="19">
@@ -4637,19 +4637,19 @@
         <v>92440</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76503</v>
+        <v>75677</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>110363</v>
+        <v>111503</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2011362735029563</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1664592783348694</v>
+        <v>0.1646619979647521</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2401346420746837</v>
+        <v>0.2426152406021008</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -4658,19 +4658,19 @@
         <v>74510</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60543</v>
+        <v>60438</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92830</v>
+        <v>90269</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2347411586424793</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1907386629640293</v>
+        <v>0.1904085297899131</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2924567288742703</v>
+        <v>0.2843901972452259</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>164</v>
@@ -4679,19 +4679,19 @@
         <v>166950</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>144536</v>
+        <v>143969</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190801</v>
+        <v>190699</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2148642405757098</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1860180809965109</v>
+        <v>0.1852876742904893</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.245560316105687</v>
+        <v>0.2454289818622262</v>
       </c>
     </row>
     <row r="20">
@@ -4708,19 +4708,19 @@
         <v>81804</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>65818</v>
+        <v>66043</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>101193</v>
+        <v>99674</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1779933510638381</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1432118895562396</v>
+        <v>0.1437011055056833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2201811486151965</v>
+        <v>0.2168772415009037</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -4729,19 +4729,19 @@
         <v>62280</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49919</v>
+        <v>49379</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76226</v>
+        <v>76605</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1962115239897922</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1572683472146371</v>
+        <v>0.1555656585508185</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2401465464995894</v>
+        <v>0.2413401768671512</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -4750,19 +4750,19 @@
         <v>144084</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>123152</v>
+        <v>124031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>168358</v>
+        <v>169051</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1854356761012501</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.158496347978814</v>
+        <v>0.1596275622831338</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2166766457931068</v>
+        <v>0.2175686975353474</v>
       </c>
     </row>
     <row r="21">
@@ -4854,19 +4854,19 @@
         <v>61424</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47269</v>
+        <v>47623</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77096</v>
+        <v>77464</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1670375459768603</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1285434318898087</v>
+        <v>0.1295062865110357</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2096538136081099</v>
+        <v>0.2106559776309054</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -4875,19 +4875,19 @@
         <v>53186</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39940</v>
+        <v>41512</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67329</v>
+        <v>67549</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2187670163312025</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1642835779796108</v>
+        <v>0.1707478023531025</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2769375436111163</v>
+        <v>0.2778450752995095</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>102</v>
@@ -4896,19 +4896,19 @@
         <v>114611</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>93171</v>
+        <v>95031</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136225</v>
+        <v>135439</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1876259806266894</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1525284172500293</v>
+        <v>0.155573135609175</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2230105833074857</v>
+        <v>0.2217237407341537</v>
       </c>
     </row>
     <row r="23">
@@ -4925,19 +4925,19 @@
         <v>53849</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>39280</v>
+        <v>41426</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>68761</v>
+        <v>69290</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1464356993897301</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1068193368818223</v>
+        <v>0.1126540948002982</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1869878941116341</v>
+        <v>0.1884265135605367</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -4946,19 +4946,19 @@
         <v>33926</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>23821</v>
+        <v>23875</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>46280</v>
+        <v>47280</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1395453101500556</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09798191339141996</v>
+        <v>0.09820331765282686</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1903599752765912</v>
+        <v>0.1944749576247768</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>79</v>
@@ -4967,19 +4967,19 @@
         <v>87774</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>70829</v>
+        <v>71080</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>106831</v>
+        <v>107497</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1436933104265108</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1159530559389819</v>
+        <v>0.1163625572689864</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1748896605845024</v>
+        <v>0.1759799827387304</v>
       </c>
     </row>
     <row r="24">
@@ -4996,19 +4996,19 @@
         <v>91426</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>74315</v>
+        <v>74221</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>110040</v>
+        <v>109907</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2486240714850732</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2020927699027407</v>
+        <v>0.2018355878074863</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2992422978481615</v>
+        <v>0.2988810328853015</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>61</v>
@@ -5017,19 +5017,19 @@
         <v>64832</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>52924</v>
+        <v>51934</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80085</v>
+        <v>79312</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2666672415915282</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2176870619282017</v>
+        <v>0.2136160200217272</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.329407088763415</v>
+        <v>0.3262267141366216</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>143</v>
@@ -5038,19 +5038,19 @@
         <v>156258</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>135574</v>
+        <v>134091</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>179049</v>
+        <v>178000</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2558052899678431</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2219447674262254</v>
+        <v>0.2195161427723926</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2931157413489338</v>
+        <v>0.2913992842333602</v>
       </c>
     </row>
     <row r="25">
@@ -5067,19 +5067,19 @@
         <v>82488</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67398</v>
+        <v>66001</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>101302</v>
+        <v>101060</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2243191294297177</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1832821493860834</v>
+        <v>0.1794832122132691</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2754820597221512</v>
+        <v>0.2748220234748902</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -5088,19 +5088,19 @@
         <v>48520</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36035</v>
+        <v>36317</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>62115</v>
+        <v>61684</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.199574476052629</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1482189189491137</v>
+        <v>0.1493795328074753</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2554948337636602</v>
+        <v>0.2537189921601105</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>120</v>
@@ -5109,19 +5109,19 @@
         <v>131009</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>112152</v>
+        <v>110265</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>152947</v>
+        <v>153951</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2144707069444853</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1836014404769517</v>
+        <v>0.1805115830893158</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2503861837382531</v>
+        <v>0.2520289634545607</v>
       </c>
     </row>
     <row r="26">
@@ -5138,19 +5138,19 @@
         <v>78541</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>63753</v>
+        <v>62388</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>95368</v>
+        <v>96680</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2135835537186187</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1733694430400623</v>
+        <v>0.1696574330022904</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2593430275956174</v>
+        <v>0.2629129580422508</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -5159,19 +5159,19 @@
         <v>42654</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>31038</v>
+        <v>31420</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>55933</v>
+        <v>55919</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1754459558745848</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1276681997410041</v>
+        <v>0.1292392464897501</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2300663049816516</v>
+        <v>0.2300085869323588</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>110</v>
@@ -5180,19 +5180,19 @@
         <v>121195</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>102961</v>
+        <v>101034</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>144542</v>
+        <v>140188</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1984047120344713</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1685540749067423</v>
+        <v>0.1654006904375447</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2366260446859469</v>
+        <v>0.2294985164939992</v>
       </c>
     </row>
     <row r="27">
@@ -5284,19 +5284,19 @@
         <v>30789</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>21757</v>
+        <v>21062</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42440</v>
+        <v>44255</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1857827644351721</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1312841697523681</v>
+        <v>0.12708780259231</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2560833767212087</v>
+        <v>0.2670391793131253</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -5305,19 +5305,19 @@
         <v>22654</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>14271</v>
+        <v>14392</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33070</v>
+        <v>33639</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2139649964180241</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1347867677778436</v>
+        <v>0.1359287470476462</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3123350435156902</v>
+        <v>0.3177091819286293</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>45</v>
@@ -5326,19 +5326,19 @@
         <v>53443</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>39591</v>
+        <v>40046</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>69570</v>
+        <v>68046</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1967689366702797</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.145765206831106</v>
+        <v>0.1474404421740661</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2561453860596123</v>
+        <v>0.250531821556911</v>
       </c>
     </row>
     <row r="29">
@@ -5355,19 +5355,19 @@
         <v>21103</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12982</v>
+        <v>12972</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>32053</v>
+        <v>30978</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1273349782906487</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07833363859077325</v>
+        <v>0.0782712767118548</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1934071299867033</v>
+        <v>0.1869212390995669</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -5376,19 +5376,19 @@
         <v>18693</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11337</v>
+        <v>11124</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>27728</v>
+        <v>28627</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1765532598922232</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1070726234532873</v>
+        <v>0.1050608284631259</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2618853022026991</v>
+        <v>0.270375075414478</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -5397,19 +5397,19 @@
         <v>39796</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28027</v>
+        <v>28633</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>51630</v>
+        <v>53901</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1465215536875136</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1031904480297481</v>
+        <v>0.1054212258363876</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1900907940673772</v>
+        <v>0.1984537877494062</v>
       </c>
     </row>
     <row r="30">
@@ -5426,19 +5426,19 @@
         <v>43413</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32079</v>
+        <v>32656</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>55541</v>
+        <v>56093</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2619555279259886</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1935678014542066</v>
+        <v>0.1970475226838943</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3351381396161987</v>
+        <v>0.3384655557975925</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -5447,19 +5447,19 @@
         <v>23602</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15770</v>
+        <v>15315</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>34184</v>
+        <v>32864</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2229110277586689</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1489393442710996</v>
+        <v>0.144642440756808</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3228581366930481</v>
+        <v>0.3103954580507414</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>58</v>
@@ -5468,19 +5468,19 @@
         <v>67014</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>54462</v>
+        <v>55244</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>82678</v>
+        <v>85757</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2467349590252406</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2005199534169292</v>
+        <v>0.2033982652980731</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3044048570377659</v>
+        <v>0.3157398600970771</v>
       </c>
     </row>
     <row r="31">
@@ -5497,19 +5497,19 @@
         <v>26719</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>17992</v>
+        <v>17415</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>38736</v>
+        <v>37035</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1612238007068456</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1085659354641668</v>
+        <v>0.1050836379087402</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2337363791979167</v>
+        <v>0.2234700609181572</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>21</v>
@@ -5518,19 +5518,19 @@
         <v>24600</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>16774</v>
+        <v>15076</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>35011</v>
+        <v>34489</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2323390748558985</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.158428525888143</v>
+        <v>0.1423890722764155</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3306744391130804</v>
+        <v>0.3257436951653908</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>45</v>
@@ -5539,19 +5539,19 @@
         <v>51319</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>38445</v>
+        <v>38810</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>65739</v>
+        <v>67872</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1889463973707216</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1415487633754132</v>
+        <v>0.1428915559778549</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2420382926264567</v>
+        <v>0.2498938341820576</v>
       </c>
     </row>
     <row r="32">
@@ -5568,19 +5568,19 @@
         <v>43702</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>33368</v>
+        <v>33205</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>56549</v>
+        <v>56731</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.263702928641345</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2013464640953454</v>
+        <v>0.2003579024147648</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3412181991016327</v>
+        <v>0.3423193415868415</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>14</v>
@@ -5589,19 +5589,19 @@
         <v>16330</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9289</v>
+        <v>9988</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>25021</v>
+        <v>26021</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1542316410751853</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08773535386356339</v>
+        <v>0.09433430641554477</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2363153582986931</v>
+        <v>0.2457642953004849</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>54</v>
@@ -5610,19 +5610,19 @@
         <v>60032</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>46227</v>
+        <v>47406</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>76605</v>
+        <v>76816</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2210281532462446</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1701997719766973</v>
+        <v>0.1745402655187626</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2820456262722603</v>
+        <v>0.2828222958677766</v>
       </c>
     </row>
     <row r="33">
@@ -5714,19 +5714,19 @@
         <v>260768</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>231378</v>
+        <v>234069</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>294259</v>
+        <v>292406</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1841143085800278</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1633635579876818</v>
+        <v>0.1652632889524948</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.207760679478223</v>
+        <v>0.2064523322991978</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>205</v>
@@ -5735,19 +5735,19 @@
         <v>212908</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>186133</v>
+        <v>188689</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>239695</v>
+        <v>239129</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2063099571820494</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1803649064681847</v>
+        <v>0.1828411669249095</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.232267063931465</v>
+        <v>0.2317179162516544</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>445</v>
@@ -5756,19 +5756,19 @@
         <v>473676</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>435078</v>
+        <v>437181</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>512933</v>
+        <v>516086</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.193469914361544</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1777047777601246</v>
+        <v>0.1785638422653</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2095040852938656</v>
+        <v>0.2107920078502555</v>
       </c>
     </row>
     <row r="35">
@@ -5785,19 +5785,19 @@
         <v>220350</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>193673</v>
+        <v>191754</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>246408</v>
+        <v>247748</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1555773088809818</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.136742023140585</v>
+        <v>0.1353874500068369</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.173975379222523</v>
+        <v>0.1749216573664992</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>140</v>
@@ -5806,19 +5806,19 @@
         <v>143558</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>122574</v>
+        <v>121925</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>167763</v>
+        <v>167588</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1391093330498343</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1187755368065582</v>
+        <v>0.118146592025663</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1625635153584207</v>
+        <v>0.1623945528598629</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>347</v>
@@ -5827,19 +5827,19 @@
         <v>363908</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>331821</v>
+        <v>329238</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>401827</v>
+        <v>401275</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1486359532730308</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1355301469314696</v>
+        <v>0.1344751894160243</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1641238731708068</v>
+        <v>0.1638980849834947</v>
       </c>
     </row>
     <row r="36">
@@ -5856,19 +5856,19 @@
         <v>380823</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>344826</v>
+        <v>351179</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>416542</v>
+        <v>414363</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2688787613293862</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2434629128890997</v>
+        <v>0.2479490444046545</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2940980999097297</v>
+        <v>0.2925594693764108</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>273</v>
@@ -5877,19 +5877,19 @@
         <v>272623</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>245189</v>
+        <v>244816</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>303033</v>
+        <v>301535</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2641739893432472</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2375908396530141</v>
+        <v>0.237228820986335</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2936417720034785</v>
+        <v>0.2921905445784819</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>623</v>
@@ -5898,19 +5898,19 @@
         <v>653445</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>609116</v>
+        <v>614229</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>696535</v>
+        <v>697007</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2668956702837734</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2487895602910521</v>
+        <v>0.2508780300565814</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2844951949600192</v>
+        <v>0.2846881914490128</v>
       </c>
     </row>
     <row r="37">
@@ -5927,19 +5927,19 @@
         <v>282915</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>251919</v>
+        <v>254064</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>316382</v>
+        <v>314577</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1997512253316293</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1778666756585663</v>
+        <v>0.179381326593483</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2233802871174634</v>
+        <v>0.2221061998285959</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>216</v>
@@ -5948,19 +5948,19 @@
         <v>220765</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>194661</v>
+        <v>197368</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>247592</v>
+        <v>248528</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.213923375572863</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1886280343683746</v>
+        <v>0.1912513334759561</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2399185352645162</v>
+        <v>0.2408263643698511</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>485</v>
@@ -5969,19 +5969,19 @@
         <v>503680</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>465979</v>
+        <v>467051</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>545062</v>
+        <v>550659</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2057248759831956</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.190326098328588</v>
+        <v>0.1907640582939685</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2226270337702161</v>
+        <v>0.2249133695165955</v>
       </c>
     </row>
     <row r="38">
@@ -5998,19 +5998,19 @@
         <v>271481</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>243214</v>
+        <v>239191</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>304326</v>
+        <v>301991</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1916783958779749</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.171720407248871</v>
+        <v>0.1688799342428678</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2148684981368698</v>
+        <v>0.2132196326608463</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>174</v>
@@ -6019,19 +6019,19 @@
         <v>182128</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>156233</v>
+        <v>156748</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>206192</v>
+        <v>207269</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1764833448520061</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1513908069873649</v>
+        <v>0.1518898539524722</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1998019630113889</v>
+        <v>0.2008459287134901</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>425</v>
@@ -6040,19 +6040,19 @@
         <v>453609</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>415770</v>
+        <v>413133</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>494951</v>
+        <v>494729</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1852735860984563</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1698188033901695</v>
+        <v>0.1687414963657687</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2021595872545456</v>
+        <v>0.2020688230197997</v>
       </c>
     </row>
     <row r="39">
@@ -6385,19 +6385,19 @@
         <v>14186</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5472</v>
+        <v>6004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22690</v>
+        <v>22986</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4712261941965293</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1817719012243424</v>
+        <v>0.1994301326448134</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.75368068593316</v>
+        <v>0.7635126150116183</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -6406,19 +6406,19 @@
         <v>9205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3616</v>
+        <v>3647</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16236</v>
+        <v>15900</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3267966303000127</v>
+        <v>0.3267966303000126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1283839465113627</v>
+        <v>0.129494331951034</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5764327079111142</v>
+        <v>0.5645074535466958</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -6427,19 +6427,19 @@
         <v>23391</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12177</v>
+        <v>13543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34639</v>
+        <v>35061</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4014130314330454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2089716189140034</v>
+        <v>0.2324169702089613</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5944476254962079</v>
+        <v>0.6016875869234236</v>
       </c>
     </row>
     <row r="5">
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11643</v>
+        <v>12698</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08329454162274551</v>
@@ -6468,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3867391712105187</v>
+        <v>0.421803419189219</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -6477,19 +6477,19 @@
         <v>4806</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1164</v>
+        <v>1149</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10773</v>
+        <v>10253</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1706393244613078</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0413079076096212</v>
+        <v>0.04079394167407293</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3824577420529082</v>
+        <v>0.364001758316712</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -6498,19 +6498,19 @@
         <v>7314</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2304</v>
+        <v>2409</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16439</v>
+        <v>16634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1255145371440141</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03953204582348344</v>
+        <v>0.04133571302869788</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2821055832847095</v>
+        <v>0.285452935233374</v>
       </c>
     </row>
     <row r="6">
@@ -6527,19 +6527,19 @@
         <v>6478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1472</v>
+        <v>1611</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>14085</v>
+        <v>14692</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2151879857721525</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04888393804897677</v>
+        <v>0.05352158262671677</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4678779998754749</v>
+        <v>0.4880259620201393</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -6548,19 +6548,19 @@
         <v>5100</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1373</v>
+        <v>1119</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12902</v>
+        <v>11566</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1810697619923368</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04873421530065872</v>
+        <v>0.03971211006955489</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.458040122585312</v>
+        <v>0.4106112678824382</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -6569,19 +6569,19 @@
         <v>11578</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5162</v>
+        <v>5292</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>20551</v>
+        <v>20880</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1986962021948797</v>
+        <v>0.1986962021948798</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08858822341146765</v>
+        <v>0.09081693694679081</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3526838380133575</v>
+        <v>0.3583173039646322</v>
       </c>
     </row>
     <row r="7">
@@ -6601,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7941</v>
+        <v>7471</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04900465211550449</v>
@@ -6610,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2637638027939422</v>
+        <v>0.2481700282484902</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8405</v>
+        <v>7942</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09148757451890147</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.298407437588717</v>
+        <v>0.2819636755651617</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -6640,19 +6640,19 @@
         <v>4052</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1127</v>
+        <v>1152</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12311</v>
+        <v>11482</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06953969422462451</v>
+        <v>0.06953969422462453</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01934878549823702</v>
+        <v>0.01976827291681931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2112664576596024</v>
+        <v>0.1970391955893535</v>
       </c>
     </row>
     <row r="8">
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18127</v>
+        <v>17234</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1812866262930681</v>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6021273335590447</v>
+        <v>0.5724647903296515</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -6690,19 +6690,19 @@
         <v>6479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1798</v>
+        <v>1857</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14847</v>
+        <v>15790</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2300067087274414</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06383421196201412</v>
+        <v>0.06594042433592956</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.527108405065875</v>
+        <v>0.5605826672918115</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -6711,19 +6711,19 @@
         <v>11936</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4385</v>
+        <v>4215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23396</v>
+        <v>25111</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2048365350034363</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07525683256207227</v>
+        <v>0.0723288271575528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4015075850872233</v>
+        <v>0.4309292623565856</v>
       </c>
     </row>
     <row r="9">
@@ -6815,19 +6815,19 @@
         <v>22792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12490</v>
+        <v>12620</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36577</v>
+        <v>35657</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1922669184537749</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1053684062868498</v>
+        <v>0.1064642346339602</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3085594575500147</v>
+        <v>0.3007985431554278</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -6836,19 +6836,19 @@
         <v>34345</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25398</v>
+        <v>25516</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>45273</v>
+        <v>43929</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3708999350535273</v>
+        <v>0.3708999350535272</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2742767960355748</v>
+        <v>0.2755515083990444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4889123032182103</v>
+        <v>0.4743942150711559</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -6857,19 +6857,19 @@
         <v>57137</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42917</v>
+        <v>43096</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74311</v>
+        <v>74921</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2706099799302218</v>
+        <v>0.2706099799302217</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.203264599875171</v>
+        <v>0.2041123581313988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.351948671961978</v>
+        <v>0.3548391532261676</v>
       </c>
     </row>
     <row r="11">
@@ -6886,19 +6886,19 @@
         <v>19711</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11001</v>
+        <v>11440</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31830</v>
+        <v>31273</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1662776281555597</v>
+        <v>0.1662776281555598</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09279984337357378</v>
+        <v>0.09650850726567863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2685150129239061</v>
+        <v>0.2638170860183339</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>17</v>
@@ -6907,19 +6907,19 @@
         <v>17327</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10328</v>
+        <v>10983</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26801</v>
+        <v>27024</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1871178563498762</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1115368221489862</v>
+        <v>0.1186086794528061</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2894242229195741</v>
+        <v>0.2918336847521054</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>30</v>
@@ -6928,19 +6928,19 @@
         <v>37038</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25486</v>
+        <v>25634</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53234</v>
+        <v>51276</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1754175246298422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1207075622999318</v>
+        <v>0.1214063751859558</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2521254992160505</v>
+        <v>0.2428509067383556</v>
       </c>
     </row>
     <row r="12">
@@ -6957,19 +6957,19 @@
         <v>34268</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>22605</v>
+        <v>22803</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>48970</v>
+        <v>48341</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2890837269305916</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1906956674187495</v>
+        <v>0.1923678698883533</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4131090460844593</v>
+        <v>0.40780192523428</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -6978,19 +6978,19 @@
         <v>17802</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11122</v>
+        <v>10898</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25679</v>
+        <v>26009</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1922489810676581</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1201085415193058</v>
+        <v>0.1176888590577005</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.277306674527256</v>
+        <v>0.2808696445902841</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>41</v>
@@ -6999,19 +6999,19 @@
         <v>52071</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>37914</v>
+        <v>37993</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>67834</v>
+        <v>68046</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2466149236119199</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.17956832095759</v>
+        <v>0.1799434024987349</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3212721146258163</v>
+        <v>0.322277188914491</v>
       </c>
     </row>
     <row r="13">
@@ -7028,19 +7028,19 @@
         <v>18872</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9824</v>
+        <v>10274</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31561</v>
+        <v>30678</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.159199996828734</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08287082326950085</v>
+        <v>0.086669487551368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2662458979576666</v>
+        <v>0.2587929263446513</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -7049,19 +7049,19 @@
         <v>16491</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9889</v>
+        <v>9779</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23872</v>
+        <v>24720</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1780841429896283</v>
+        <v>0.1780841429896284</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1067958691509448</v>
+        <v>0.1056085978289071</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2577933874063033</v>
+        <v>0.2669573361966737</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -7070,19 +7070,19 @@
         <v>35362</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24035</v>
+        <v>24532</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49758</v>
+        <v>50007</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1674820146313445</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1138329073936419</v>
+        <v>0.1161883504086312</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2356642375779735</v>
+        <v>0.2368396777565216</v>
       </c>
     </row>
     <row r="14">
@@ -7099,19 +7099,19 @@
         <v>22899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>11206</v>
+        <v>11424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39216</v>
+        <v>39362</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1931717296313396</v>
+        <v>0.1931717296313397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09453218203805132</v>
+        <v>0.09636860922960697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3308240308595797</v>
+        <v>0.3320530928598347</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -7120,19 +7120,19 @@
         <v>6635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2196</v>
+        <v>2452</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14885</v>
+        <v>15280</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07164908453930997</v>
+        <v>0.07164908453930995</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02371291487170802</v>
+        <v>0.02647552511498023</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1607436911144463</v>
+        <v>0.1650096596860543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -7141,19 +7141,19 @@
         <v>29533</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16057</v>
+        <v>16135</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>47039</v>
+        <v>45843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1398755571966717</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07604871671801521</v>
+        <v>0.07642040160605114</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2227851414480609</v>
+        <v>0.2171208941163661</v>
       </c>
     </row>
     <row r="15">
@@ -7245,19 +7245,19 @@
         <v>29503</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19948</v>
+        <v>20111</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41188</v>
+        <v>41479</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2437401088666152</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1648037238207756</v>
+        <v>0.1661529699283095</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3402826761739319</v>
+        <v>0.3426799061053213</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -7266,19 +7266,19 @@
         <v>34704</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25991</v>
+        <v>27151</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43417</v>
+        <v>42955</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3332502137851715</v>
+        <v>0.3332502137851714</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2495819380556365</v>
+        <v>0.2607168978542499</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4169142037960278</v>
+        <v>0.4124760324758782</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -7287,19 +7287,19 @@
         <v>64207</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>51009</v>
+        <v>51830</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77856</v>
+        <v>77714</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2851356860878034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2265264653608632</v>
+        <v>0.2301688525316452</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3457469671215648</v>
+        <v>0.3451183236284136</v>
       </c>
     </row>
     <row r="17">
@@ -7316,19 +7316,19 @@
         <v>8743</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3480</v>
+        <v>3803</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16047</v>
+        <v>17599</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07222773980958394</v>
+        <v>0.07222773980958391</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02874921538690539</v>
+        <v>0.03141480924051853</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1325740434249055</v>
+        <v>0.1453930488571732</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -7337,19 +7337,19 @@
         <v>14876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9590</v>
+        <v>9580</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21870</v>
+        <v>22169</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1428472615511388</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09209216397853497</v>
+        <v>0.09198867153489854</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2100072138051708</v>
+        <v>0.212881087542214</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -7358,19 +7358,19 @@
         <v>23619</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15383</v>
+        <v>16113</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33350</v>
+        <v>33405</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1048870230071158</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06831370248806888</v>
+        <v>0.07155414200381843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1481020992138474</v>
+        <v>0.1483489781544776</v>
       </c>
     </row>
     <row r="18">
@@ -7387,19 +7387,19 @@
         <v>33690</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>24450</v>
+        <v>23471</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>45537</v>
+        <v>44827</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2783292368213876</v>
+        <v>0.2783292368213875</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2019952488525938</v>
+        <v>0.1939059707330551</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3762075512668391</v>
+        <v>0.3703445084787446</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -7408,19 +7408,19 @@
         <v>18482</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12770</v>
+        <v>12950</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>25562</v>
+        <v>25721</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1774773663212489</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1226272633969538</v>
+        <v>0.1243567968686968</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2454617161325731</v>
+        <v>0.2469885616759668</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>57</v>
@@ -7429,19 +7429,19 @@
         <v>52172</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>41130</v>
+        <v>40772</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>67321</v>
+        <v>66381</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2316884536719502</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1826540723850501</v>
+        <v>0.1810629948490826</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2989660581671034</v>
+        <v>0.2947884992488355</v>
       </c>
     </row>
     <row r="19">
@@ -7458,19 +7458,19 @@
         <v>23140</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>14463</v>
+        <v>15179</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33150</v>
+        <v>33137</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1911727590946568</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1194876675800399</v>
+        <v>0.1254011289685755</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2738710021756928</v>
+        <v>0.2737661487411236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -7479,19 +7479,19 @@
         <v>15032</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10076</v>
+        <v>9955</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22156</v>
+        <v>21952</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1443502678804788</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09675449512721583</v>
+        <v>0.09559217109690139</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2127568745415985</v>
+        <v>0.2107910450927228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -7500,19 +7500,19 @@
         <v>38172</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27996</v>
+        <v>28123</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>51617</v>
+        <v>49636</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1695188458017556</v>
+        <v>0.1695188458017555</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1243283678830185</v>
+        <v>0.1248897310375318</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2292249187507941</v>
+        <v>0.2204260418363777</v>
       </c>
     </row>
     <row r="20">
@@ -7529,19 +7529,19 @@
         <v>25967</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17637</v>
+        <v>17102</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36286</v>
+        <v>36094</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2145301554077565</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1457103775197151</v>
+        <v>0.1412866943887104</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2997809781151154</v>
+        <v>0.2981914557749021</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -7550,19 +7550,19 @@
         <v>21044</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14973</v>
+        <v>14504</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28924</v>
+        <v>28198</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.2020748904619621</v>
+        <v>0.202074890461962</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1437770746757236</v>
+        <v>0.139276262391715</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2777488118467593</v>
+        <v>0.2707704614202799</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>49</v>
@@ -7571,19 +7571,19 @@
         <v>47011</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>36152</v>
+        <v>36489</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58915</v>
+        <v>61469</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.208769991431375</v>
+        <v>0.2087699914313751</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1605442824036465</v>
+        <v>0.1620412469206398</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2616361244247609</v>
+        <v>0.2729775048878054</v>
       </c>
     </row>
     <row r="21">
@@ -7675,19 +7675,19 @@
         <v>36771</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26011</v>
+        <v>27300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48668</v>
+        <v>50405</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2680679042576338</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1896254929621814</v>
+        <v>0.1990182722500426</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3547959193584589</v>
+        <v>0.3674555723671316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -7696,19 +7696,19 @@
         <v>39372</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31949</v>
+        <v>31519</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47359</v>
+        <v>48401</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3242669078926165</v>
+        <v>0.3242669078926166</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2631244198063042</v>
+        <v>0.2595879293092205</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3900438552725086</v>
+        <v>0.3986212965882177</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>87</v>
@@ -7717,19 +7717,19 @@
         <v>76144</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>62641</v>
+        <v>62385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>91735</v>
+        <v>90397</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2944557864676287</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2422371249593258</v>
+        <v>0.2412496252038812</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3547488140729694</v>
+        <v>0.3495754088750496</v>
       </c>
     </row>
     <row r="23">
@@ -7746,19 +7746,19 @@
         <v>16120</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9109</v>
+        <v>8996</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24743</v>
+        <v>25417</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1175178739671626</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06640740615930944</v>
+        <v>0.06558483276537348</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1803820936304774</v>
+        <v>0.1852964454754405</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -7767,19 +7767,19 @@
         <v>9494</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5418</v>
+        <v>5428</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>15000</v>
+        <v>14942</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07818860024566823</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04462006931095332</v>
+        <v>0.04470180157695165</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1235415448416478</v>
+        <v>0.1230599815212566</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -7788,19 +7788,19 @@
         <v>25614</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>17583</v>
+        <v>16642</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>37043</v>
+        <v>35823</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.09905106538976954</v>
+        <v>0.09905106538976953</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06799363087960945</v>
+        <v>0.06435467335469536</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1432471246016678</v>
+        <v>0.1385320667459143</v>
       </c>
     </row>
     <row r="24">
@@ -7817,19 +7817,19 @@
         <v>31748</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>22436</v>
+        <v>22588</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>42294</v>
+        <v>42338</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2314438918930959</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1635645074936321</v>
+        <v>0.1646719529987785</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3083293919098583</v>
+        <v>0.3086489458630968</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -7838,19 +7838,19 @@
         <v>32813</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25669</v>
+        <v>25552</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>40114</v>
+        <v>40826</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2702451718922297</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2114057794460416</v>
+        <v>0.2104430336818473</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3303755106398419</v>
+        <v>0.3362363514707086</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>88</v>
@@ -7859,19 +7859,19 @@
         <v>64561</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>52126</v>
+        <v>52154</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>77109</v>
+        <v>77775</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.249662784399881</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2015756927909307</v>
+        <v>0.2016851774065698</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.29818655991974</v>
+        <v>0.3007638375058287</v>
       </c>
     </row>
     <row r="25">
@@ -7888,19 +7888,19 @@
         <v>20867</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13687</v>
+        <v>13177</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>29754</v>
+        <v>30149</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1521224985910629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09978179758123686</v>
+        <v>0.09605961200734944</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2169082129805789</v>
+        <v>0.2197903715648322</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -7909,19 +7909,19 @@
         <v>19767</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14118</v>
+        <v>13931</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>26823</v>
+        <v>26757</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1627994059042444</v>
+        <v>0.1627994059042445</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1162748265164472</v>
+        <v>0.1147308442284664</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2209128069728898</v>
+        <v>0.2203668332068296</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>55</v>
@@ -7930,19 +7930,19 @@
         <v>40634</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>31291</v>
+        <v>31332</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>52478</v>
+        <v>52617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1571357720358592</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.121004101341034</v>
+        <v>0.1211652839819669</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2029377328866606</v>
+        <v>0.203475546441939</v>
       </c>
     </row>
     <row r="26">
@@ -7959,19 +7959,19 @@
         <v>31666</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22294</v>
+        <v>21943</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>42527</v>
+        <v>43231</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2308478312910449</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1625251448202608</v>
+        <v>0.1599687213798683</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3100252736629608</v>
+        <v>0.3151589916510927</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>29</v>
@@ -7980,19 +7980,19 @@
         <v>19974</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>14069</v>
+        <v>14394</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27214</v>
+        <v>28612</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1644999140652411</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1158691021648489</v>
+        <v>0.1185441579382677</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2241322469103642</v>
+        <v>0.2356408585469515</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>58</v>
@@ -8001,19 +8001,19 @@
         <v>51639</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39989</v>
+        <v>39384</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>66107</v>
+        <v>64557</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1996945917068616</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1546418741518623</v>
+        <v>0.1523004399673982</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2556427667970244</v>
+        <v>0.2496488757568698</v>
       </c>
     </row>
     <row r="27">
@@ -8105,19 +8105,19 @@
         <v>16632</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>10695</v>
+        <v>10553</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24680</v>
+        <v>24485</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.242457328232744</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.15591090226403</v>
+        <v>0.1538453853608746</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3597717153649787</v>
+        <v>0.3569399552583567</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>18</v>
@@ -8126,19 +8126,19 @@
         <v>11950</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>8013</v>
+        <v>7818</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>17408</v>
+        <v>17471</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2911311142727186</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1952190455768711</v>
+        <v>0.190461451164244</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4240796387760039</v>
+        <v>0.425621534084636</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>36</v>
@@ -8147,19 +8147,19 @@
         <v>28582</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>21326</v>
+        <v>21354</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>37442</v>
+        <v>36962</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2606792871565204</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1944963771152834</v>
+        <v>0.1947568691123857</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3414772018721289</v>
+        <v>0.3371065675817632</v>
       </c>
     </row>
     <row r="29">
@@ -8176,19 +8176,19 @@
         <v>5343</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2020</v>
+        <v>2079</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11124</v>
+        <v>11340</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.07788839860016751</v>
+        <v>0.07788839860016754</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02944640617034756</v>
+        <v>0.03031302566459673</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1621690061515188</v>
+        <v>0.1653095840896428</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -8197,19 +8197,19 @@
         <v>6460</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3183</v>
+        <v>3238</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10730</v>
+        <v>10713</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1573845148275134</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0775415068874743</v>
+        <v>0.07887173514348984</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2614021910858298</v>
+        <v>0.2609764535370016</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -8218,19 +8218,19 @@
         <v>11803</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6532</v>
+        <v>6604</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19224</v>
+        <v>18912</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.107649283921576</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05957569030536179</v>
+        <v>0.06023423443003</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1753252513607124</v>
+        <v>0.1724848109545957</v>
       </c>
     </row>
     <row r="30">
@@ -8247,19 +8247,19 @@
         <v>18665</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12599</v>
+        <v>12452</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>26815</v>
+        <v>27046</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2720974190423691</v>
+        <v>0.2720974190423692</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1836611843370791</v>
+        <v>0.181527644680006</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3909055214244018</v>
+        <v>0.3942752260847597</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>16</v>
@@ -8268,19 +8268,19 @@
         <v>9800</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5999</v>
+        <v>5738</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>14487</v>
+        <v>14773</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2387431444616143</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1461417519503277</v>
+        <v>0.1397977521621743</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3529319472285357</v>
+        <v>0.3598847361019427</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>36</v>
@@ -8289,19 +8289,19 @@
         <v>28465</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20885</v>
+        <v>21108</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>37531</v>
+        <v>37862</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2596106110335629</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1904756560037809</v>
+        <v>0.1925059649053771</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3422889040526298</v>
+        <v>0.3453068410843884</v>
       </c>
     </row>
     <row r="31">
@@ -8318,19 +8318,19 @@
         <v>15817</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10269</v>
+        <v>9840</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>23065</v>
+        <v>23398</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.2305699255513923</v>
+        <v>0.2305699255513924</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.149699273947809</v>
+        <v>0.1434422411356541</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3362359791377464</v>
+        <v>0.3410932535551641</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -8339,19 +8339,19 @@
         <v>4765</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2377</v>
+        <v>2229</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8505</v>
+        <v>8521</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1160729531539363</v>
+        <v>0.1160729531539362</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05791994320768693</v>
+        <v>0.05429852682348681</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2071907518119998</v>
+        <v>0.2075976625693774</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>27</v>
@@ -8360,19 +8360,19 @@
         <v>20581</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14599</v>
+        <v>13789</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>29345</v>
+        <v>29139</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1877058030397444</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1331495273188326</v>
+        <v>0.1257592310713681</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2676338134287564</v>
+        <v>0.2657522156573556</v>
       </c>
     </row>
     <row r="32">
@@ -8389,19 +8389,19 @@
         <v>12141</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6852</v>
+        <v>6743</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>19396</v>
+        <v>19115</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1769869285733271</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09988930658139959</v>
+        <v>0.09829964489421325</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2827455946504392</v>
+        <v>0.2786509025765177</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>13</v>
@@ -8410,19 +8410,19 @@
         <v>8073</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>4679</v>
+        <v>4587</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>12553</v>
+        <v>12414</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1966682732842174</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1139887275070532</v>
+        <v>0.1117565480377001</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3058040654612716</v>
+        <v>0.3024235983906534</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>25</v>
@@ -8431,19 +8431,19 @@
         <v>20214</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13687</v>
+        <v>13429</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28594</v>
+        <v>28511</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1843550148485963</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1248263665121966</v>
+        <v>0.122472259386504</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2607875013428875</v>
+        <v>0.2600290749251239</v>
       </c>
     </row>
     <row r="33">
@@ -8535,19 +8535,19 @@
         <v>119884</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99661</v>
+        <v>99287</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>145483</v>
+        <v>144230</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2521441935768168</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2096118124644677</v>
+        <v>0.2088249446180088</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3059864763181243</v>
+        <v>0.3033502681157208</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>154</v>
@@ -8556,19 +8556,19 @@
         <v>129577</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>113136</v>
+        <v>113669</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>147616</v>
+        <v>148262</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3345020436434823</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2920583941059871</v>
+        <v>0.293434238427237</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3810678471551249</v>
+        <v>0.382737030587791</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>244</v>
@@ -8577,19 +8577,19 @@
         <v>249461</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>222561</v>
+        <v>223697</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>279683</v>
+        <v>280141</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2891193241605713</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2579435110449542</v>
+        <v>0.2592598310597578</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3241460180575423</v>
+        <v>0.3246770662531212</v>
       </c>
     </row>
     <row r="35">
@@ -8606,19 +8606,19 @@
         <v>52424</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>39512</v>
+        <v>37432</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>68705</v>
+        <v>69257</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1102600790221075</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08310265159668288</v>
+        <v>0.07872912958052838</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1445038111902543</v>
+        <v>0.1456636020457389</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>65</v>
@@ -8627,19 +8627,19 @@
         <v>52963</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>42270</v>
+        <v>41983</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>66561</v>
+        <v>68185</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1367243032204613</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1091196700881897</v>
+        <v>0.108377354771574</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1718256967261287</v>
+        <v>0.1760190605933199</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>105</v>
@@ -8648,19 +8648,19 @@
         <v>105387</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>86928</v>
+        <v>85174</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>126936</v>
+        <v>124808</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1221413768551595</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1007480804744925</v>
+        <v>0.09871465267911954</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.147115343875181</v>
+        <v>0.144649970583189</v>
       </c>
     </row>
     <row r="36">
@@ -8677,19 +8677,19 @@
         <v>124849</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>103090</v>
+        <v>104051</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>145208</v>
+        <v>147007</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2625868553822283</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2168219728088796</v>
+        <v>0.2188434785601929</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3054079749940345</v>
+        <v>0.3091908445799655</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>119</v>
@@ -8698,19 +8698,19 @@
         <v>83998</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>69903</v>
+        <v>69465</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>99385</v>
+        <v>99145</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2168392226756567</v>
+        <v>0.2168392226756568</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1804546567216216</v>
+        <v>0.1793223231054578</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2565603112485049</v>
+        <v>0.2559423604974018</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>230</v>
@@ -8719,19 +8719,19 @@
         <v>208846</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>184169</v>
+        <v>182186</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>234303</v>
+        <v>233460</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2420481369497546</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2134470391182265</v>
+        <v>0.2111497895278609</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2715516267510351</v>
+        <v>0.270574306565795</v>
       </c>
     </row>
     <row r="37">
@@ -8748,19 +8748,19 @@
         <v>80170</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64334</v>
+        <v>64258</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>99406</v>
+        <v>100126</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1686175968728791</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1353100559868676</v>
+        <v>0.1351503279244858</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.209074395449095</v>
+        <v>0.2105880657551914</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>82</v>
@@ -8769,19 +8769,19 @@
         <v>58632</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>45492</v>
+        <v>46962</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>72393</v>
+        <v>70697</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1513568319363025</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1174373320013953</v>
+        <v>0.1212317495694012</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1868825213642672</v>
+        <v>0.1825028475188277</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>156</v>
@@ -8790,19 +8790,19 @@
         <v>138802</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>117679</v>
+        <v>118873</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>159437</v>
+        <v>160359</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.160868256196929</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1363866858298888</v>
+        <v>0.1377709317792413</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1847835049721611</v>
+        <v>0.1858524265586981</v>
       </c>
     </row>
     <row r="38">
@@ -8819,19 +8819,19 @@
         <v>98130</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>78056</v>
+        <v>79347</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>120447</v>
+        <v>121475</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2063912751459684</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1641707114155854</v>
+        <v>0.1668860654044162</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2533296512451256</v>
+        <v>0.2554909008292172</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>77</v>
@@ -8840,19 +8840,19 @@
         <v>62204</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>50149</v>
+        <v>50628</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>76303</v>
+        <v>78621</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1605775985240971</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1294580440235064</v>
+        <v>0.1306950431323516</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1969737579401272</v>
+        <v>0.2029591367349985</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>151</v>
@@ -8861,19 +8861,19 @@
         <v>160334</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>135519</v>
+        <v>136543</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>188515</v>
+        <v>189933</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.1858229058375856</v>
+        <v>0.1858229058375857</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1570630455001145</v>
+        <v>0.1582497435921551</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2184840079695258</v>
+        <v>0.2201277363028593</v>
       </c>
     </row>
     <row r="39">
